--- a/Test/BOQ122.xlsx
+++ b/Test/BOQ122.xlsx
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>2.71</v>
+        <v>0.253</v>
       </c>
       <c r="G22" s="84" t="n">
         <v>0</v>
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>2.45</v>
+        <v>1.671</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>0</v>
+        <v>0.786</v>
       </c>
       <c r="G137" s="9" t="n">
         <v>0</v>
@@ -18658,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="G138" s="9" t="n">
         <v>0</v>
